--- a/Referneces.xlsx
+++ b/Referneces.xlsx
@@ -8,33 +8,37 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+  <si>
+    <t>Speech Language Translator Using Google API in Python</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/language-translator-using-google-api-in-python/</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>conda create -p ststrans python==3.9 -y</t>
+  </si>
+  <si>
+    <t>create environment called "ststrans''</t>
+  </si>
+  <si>
+    <t>conda activate ststrans/</t>
+  </si>
+  <si>
+    <t>pip install -r requirements.txt</t>
+  </si>
   <si>
     <t>pip install googletrans==3.1.0a0</t>
-  </si>
-  <si>
-    <t>Speech Language Translator Using Google API in Python</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/language-translator-using-google-api-in-python/</t>
-  </si>
-  <si>
-    <t>Steps</t>
-  </si>
-  <si>
-    <t>conda create -p ststrans python==3.9 -y</t>
-  </si>
-  <si>
-    <t>create environment called "ststrans''</t>
-  </si>
-  <si>
-    <t>conda activate ststrans/</t>
   </si>
   <si>
     <t>pip install pyaudio
@@ -48,7 +52,343 @@
     <t xml:space="preserve">run file </t>
   </si>
   <si>
-    <t>pip install -r requirements.txt</t>
+    <t>python real_time_speech_lang_translator.py</t>
+  </si>
+  <si>
+    <t>streamlit run Rough_real_time_speech_lang_translator.py</t>
+  </si>
+  <si>
+    <t>googletrans</t>
+  </si>
+  <si>
+    <t>af': 'afrikaans',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'eu': 'basque',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'sn': 'shona',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ceb': 'cebuano',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'es': 'spanish',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'cs': 'czech',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'te': 'telugu',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'sq': 'albanian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'be': 'belarusian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'sd': 'sindhi',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ny': 'chichewa',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'su': 'sundanese',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'da': 'danish',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'th': 'thai',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'am': 'amharic',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'bn': 'bengali',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'si': 'sinhala',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'zh-cn': 'chinese (simplified)',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'sw': 'swahili',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'nl': 'dutch',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'tr': 'turkish',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ar': 'arabic',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'bs': 'bosnian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'sk': 'slovak',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'zh-tw': 'chinese (traditional)',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'sv': 'swedish',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'en': 'english',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'uk': 'ukrainian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'hy': 'armenian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'bg': 'bulgarian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'sl': 'slovenian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'co': 'corsican',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'tg': 'tajik',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'eo': 'esperanto',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ur': 'urdu',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'az': 'azerbaijani',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ca': 'catalan',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'so': 'somali',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'hr': 'croatian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ta': 'tamil',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'et': 'estonian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ug': 'uyghur',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'is': 'icelandic',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ga': 'irish',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'jw': 'javanese',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ko': 'korean',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ky': 'kyrgyz',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'lt': 'lithuanian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'mg': 'malagasy',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ig': 'igbo',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'it': 'italian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'kn': 'kannada',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ku': 'kurdish (kurmanji)',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'lo': 'lao',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'lb': 'luxembourgish',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ms': 'malay',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'id': 'indonesian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ja': 'japanese',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'kk': 'kazakh',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'km': 'khmer',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'la': 'latin',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'mk': 'macedonian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ml': 'malayalam',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'fa': 'persian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ru': 'russian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'sm': 'samoan',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'gd': 'scots gaelic',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'lv': 'latvian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'sr': 'serbian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'mt': 'maltese',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'tl': 'filipino',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'uz': 'uzbek',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'de': 'german',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'zu': 'zulu',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'fi': 'finnish',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'vi': 'vietnamese',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'el': 'greek',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'iw': 'hebrew',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'fr': 'french',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'cy': 'welsh',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'gu': 'gujarati',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'he': 'hebrew',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'fy': 'frisian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'xh': 'xhosa',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ht': 'haitian creole',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'hi': 'hindi',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'gl': 'galician',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'yi': 'yiddish',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ha': 'hausa',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'hmn': 'hmong',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ka': 'georgian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'yo': 'yoruba',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'haw': 'hawaiian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'hu': 'hungarian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'mi': 'maori',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ne': 'nepali',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'pl': 'polish',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'st': 'sesotho',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'mr': 'marathi',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'no': 'norwegian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'pt': 'portuguese',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'mn': 'mongolian',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'or': 'odia',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'pa': 'punjabi',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'my': 'myanmar (burmese)',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ps': 'pashto',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'ro': 'romanian',</t>
+  </si>
+  <si>
+    <t>pip install streamlit==1.29.0</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/create-a-real-time-voice-translator-using-python/</t>
+  </si>
+  <si>
+    <t>Create a real time voice translator using Python</t>
   </si>
 </sst>
 </file>
@@ -64,15 +404,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -95,6 +428,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF212529"/>
       <name val="Consolas"/>
@@ -103,6 +443,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -118,14 +466,7 @@
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -163,38 +504,40 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -500,7 +843,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -511,96 +854,501 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="39" customHeight="1">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1"/>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="15.75">
-      <c r="A8" s="10" t="s">
-        <v>0</v>
+      <c r="A8" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25">
-      <c r="A9" s="10" t="s">
-        <v>7</v>
+      <c r="A9" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75">
-      <c r="A11" s="3"/>
+      <c r="A10" s="5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
       <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
     </row>
     <row r="25" spans="1:1" ht="18.75">
-      <c r="A25" s="1"/>
+      <c r="A25" s="8"/>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="9"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="6"/>
+      <c r="A34" s="7"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="7"/>
+      <c r="A35" s="10"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="8"/>
+      <c r="A41" s="11"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>